--- a/0-data/0-raw/tree2m.xlsx
+++ b/0-data/0-raw/tree2m.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohamed\Desktop\terrain_mesures_millan2020\arbres_mtg\arbre2\A2M\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cirad.fr\AMAP - FSPM - Analyses\Allometries\0-data\0-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="A2M" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -215,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -990,7 +990,7 @@
       <c r="V39" s="5"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D40" s="6" t="s">
+      <c r="B40" s="6" t="s">
         <v>37</v>
       </c>
       <c r="K40">
@@ -999,7 +999,7 @@
       <c r="L40" s="2"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D41" t="s">
+      <c r="B41" t="s">
         <v>38</v>
       </c>
       <c r="G41">
@@ -1045,7 +1045,7 @@
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E42" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>39</v>
       </c>
       <c r="K42">
@@ -1054,7 +1054,7 @@
       <c r="L42" s="2"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E43" t="s">
+      <c r="C43" t="s">
         <v>38</v>
       </c>
       <c r="G43">
@@ -1097,7 +1097,7 @@
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D44" t="s">
+      <c r="B44" t="s">
         <v>40</v>
       </c>
       <c r="G44">
@@ -1115,7 +1115,7 @@
       <c r="L44" s="2"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E45" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>39</v>
       </c>
       <c r="K45">
@@ -1124,7 +1124,7 @@
       <c r="L45" s="2"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E46" t="s">
+      <c r="C46" t="s">
         <v>38</v>
       </c>
       <c r="G46">
@@ -1167,7 +1167,7 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="D47" t="s">
+      <c r="B47" t="s">
         <v>41</v>
       </c>
       <c r="G47">
@@ -1185,7 +1185,7 @@
       <c r="L47" s="2"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="E48" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>39</v>
       </c>
       <c r="K48">
@@ -1193,8 +1193,8 @@
       </c>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E49" t="s">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
         <v>38</v>
       </c>
       <c r="G49">
@@ -1236,8 +1236,8 @@
         <v>0.22489999999999999</v>
       </c>
     </row>
-    <row r="50" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D50" t="s">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
         <v>42</v>
       </c>
       <c r="G50">
@@ -1254,8 +1254,8 @@
       </c>
       <c r="L50" s="2"/>
     </row>
-    <row r="51" spans="4:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="8" t="s">
+    <row r="51" spans="2:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="8" t="s">
         <v>39</v>
       </c>
       <c r="K51">
@@ -1263,8 +1263,8 @@
       </c>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E52" t="s">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
         <v>38</v>
       </c>
       <c r="G52">
@@ -1306,8 +1306,8 @@
         <v>0.40939999999999999</v>
       </c>
     </row>
-    <row r="53" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D53" t="s">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
         <v>43</v>
       </c>
       <c r="G53">
@@ -1352,8 +1352,8 @@
         <v>1.5419</v>
       </c>
     </row>
-    <row r="54" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E54" s="8" t="s">
+    <row r="54" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C54" s="8" t="s">
         <v>39</v>
       </c>
       <c r="K54">
@@ -1361,8 +1361,8 @@
       </c>
       <c r="L54" s="2"/>
     </row>
-    <row r="55" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E55" t="s">
+    <row r="55" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
         <v>38</v>
       </c>
       <c r="G55">
@@ -1404,8 +1404,8 @@
         <v>1.3784000000000001</v>
       </c>
     </row>
-    <row r="56" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D56" t="s">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
         <v>44</v>
       </c>
       <c r="G56">
@@ -1422,8 +1422,8 @@
       </c>
       <c r="L56" s="2"/>
     </row>
-    <row r="57" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E57" s="8" t="s">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C57" s="8" t="s">
         <v>39</v>
       </c>
       <c r="K57">
@@ -1431,8 +1431,8 @@
       </c>
       <c r="L57" s="2"/>
     </row>
-    <row r="58" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E58" t="s">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
         <v>38</v>
       </c>
       <c r="G58">
@@ -1474,8 +1474,8 @@
         <v>0.2651</v>
       </c>
     </row>
-    <row r="59" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D59" t="s">
+    <row r="59" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
         <v>45</v>
       </c>
       <c r="G59">
@@ -1492,8 +1492,8 @@
       </c>
       <c r="L59" s="2"/>
     </row>
-    <row r="60" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E60" s="8" t="s">
+    <row r="60" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C60" s="8" t="s">
         <v>39</v>
       </c>
       <c r="K60">
@@ -1501,8 +1501,8 @@
       </c>
       <c r="L60" s="2"/>
     </row>
-    <row r="61" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E61" t="s">
+    <row r="61" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
         <v>38</v>
       </c>
       <c r="G61">
@@ -1544,8 +1544,8 @@
         <v>0.30909999999999999</v>
       </c>
     </row>
-    <row r="62" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D62" t="s">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
         <v>46</v>
       </c>
       <c r="G62">
@@ -1578,8 +1578,8 @@
         <v>2.5974999999999997</v>
       </c>
     </row>
-    <row r="63" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E63" s="8" t="s">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C63" s="8" t="s">
         <v>39</v>
       </c>
       <c r="K63">
@@ -1587,8 +1587,8 @@
       </c>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E64" t="s">
+    <row r="64" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
         <v>38</v>
       </c>
       <c r="G64">
@@ -1602,8 +1602,8 @@
       </c>
       <c r="L64" s="2"/>
     </row>
-    <row r="65" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D65" t="s">
+    <row r="65" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
         <v>47</v>
       </c>
       <c r="G65">
@@ -1620,8 +1620,8 @@
       </c>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E66" s="8" t="s">
+    <row r="66" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C66" s="8" t="s">
         <v>39</v>
       </c>
       <c r="K66">
@@ -1629,8 +1629,8 @@
       </c>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E67" t="s">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
         <v>38</v>
       </c>
       <c r="G67">
@@ -1672,8 +1672,8 @@
         <v>0.93359999999999999</v>
       </c>
     </row>
-    <row r="68" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D68" t="s">
+    <row r="68" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
         <v>48</v>
       </c>
       <c r="G68">
@@ -1718,8 +1718,8 @@
         <v>1.4866000000000001</v>
       </c>
     </row>
-    <row r="69" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E69" s="8" t="s">
+    <row r="69" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C69" s="8" t="s">
         <v>39</v>
       </c>
       <c r="K69">
@@ -1727,8 +1727,8 @@
       </c>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="E70" t="s">
+    <row r="70" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
         <v>38</v>
       </c>
       <c r="G70">
@@ -1770,8 +1770,8 @@
         <v>2.2787999999999999</v>
       </c>
     </row>
-    <row r="71" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D71" t="s">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
         <v>49</v>
       </c>
       <c r="G71">
@@ -1816,25 +1816,25 @@
         <v>2.8073999999999999</v>
       </c>
     </row>
-    <row r="72" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:21" x14ac:dyDescent="0.3">
       <c r="L72" s="2"/>
     </row>
-    <row r="73" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.3">
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:21" x14ac:dyDescent="0.3">
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:21" x14ac:dyDescent="0.3">
       <c r="L75" s="2"/>
     </row>
-    <row r="76" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:21" x14ac:dyDescent="0.3">
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.3">
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:21" x14ac:dyDescent="0.3">
       <c r="L78" s="2"/>
     </row>
   </sheetData>
@@ -1975,6 +1975,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1983,20 +1989,44 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CBA106-2A0B-448C-801E-8CE2DACF3211}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0CBA106-2A0B-448C-801E-8CE2DACF3211}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f3bb3ef3-874e-4bfe-a810-81c575a8e62c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F52F23B2-CC33-4EA8-89EB-D1E9021F83A5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54D6313A-1D11-4F60-85C9-9018F9484DD8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="f3bb3ef3-874e-4bfe-a810-81c575a8e62c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54D6313A-1D11-4F60-85C9-9018F9484DD8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F52F23B2-CC33-4EA8-89EB-D1E9021F83A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>